--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Alphalogic Techsys Ltd/Pruned_Excel/Final_Parameters/Semi_Final/Alphalogic Techsys Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Alphalogic Techsys Ltd/Pruned_Excel/Final_Parameters/Semi_Final/Alphalogic Techsys Ltd_Semi_Final.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
   <si>
     <t>Balance Sheet of Alphalogic Techsys(in Rs. Cr.)</t>
   </si>
@@ -170,6 +170,12 @@
     <t>Quarterly Results of Alphalogic Techsys(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
     <t>Net sales/income from operations</t>
   </si>
   <si>
@@ -224,34 +230,37 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>Jun 22 Q1</t>
-  </si>
-  <si>
-    <t>Sep 22 Q2</t>
-  </si>
-  <si>
-    <t>Dec 22 Q3</t>
-  </si>
-  <si>
-    <t>Mar 23 Q4</t>
-  </si>
-  <si>
-    <t>Jun 23 Q1</t>
-  </si>
-  <si>
-    <t>Sep 23 Q2</t>
-  </si>
-  <si>
-    <t>Dec 23 Q3</t>
-  </si>
-  <si>
-    <t>Mar 24 Q4</t>
-  </si>
-  <si>
-    <t>Jun 24 Q1</t>
-  </si>
-  <si>
-    <t>Sep 24 Q2</t>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
   </si>
   <si>
     <t>Key Financial Ratios of Alphalogic Techsys(in Rs. Cr.)</t>
@@ -1530,13 +1539,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -1553,19 +1562,19 @@
         <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>57</v>
@@ -1600,64 +1609,70 @@
       <c r="U1" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2">
         <v>0.9399999999999999</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>0.9399999999999999</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>0.08</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>0.01</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>0.45</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.41</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>0.19</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>0.6</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.08</v>
-      </c>
-      <c r="K2">
-        <v>0.52</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
       </c>
       <c r="M2">
         <v>0.52</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.52</v>
+      </c>
+      <c r="P2">
         <v>0.12</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>0.4</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>0.4</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>11.29</v>
-      </c>
-      <c r="R2">
-        <v>0.18</v>
-      </c>
-      <c r="S2">
-        <v>0.18</v>
       </c>
       <c r="T2">
         <v>0.18</v>
@@ -1665,64 +1680,70 @@
       <c r="U2">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2">
+        <v>0.18</v>
+      </c>
+      <c r="W2">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3">
         <v>1.05</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>1.05</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>0.08</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>0.01</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>0.54</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0.43</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>0.16</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.59</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>0.04</v>
-      </c>
-      <c r="K3">
-        <v>0.55</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
       </c>
       <c r="M3">
         <v>0.55</v>
       </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.55</v>
+      </c>
+      <c r="P3">
         <v>0.14</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>0.41</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>0.41</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>16.93</v>
-      </c>
-      <c r="R3">
-        <v>0.12</v>
-      </c>
-      <c r="S3">
-        <v>0.12</v>
       </c>
       <c r="T3">
         <v>0.12</v>
@@ -1730,64 +1751,70 @@
       <c r="U3">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3">
+        <v>0.12</v>
+      </c>
+      <c r="W3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>70</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4">
         <v>1.07</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>1.07</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>0.07000000000000001</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>0.01</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.38</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.62</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>0.21</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.83</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.08</v>
-      </c>
-      <c r="K4">
-        <v>0.75</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
       </c>
       <c r="M4">
         <v>0.75</v>
       </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0.75</v>
+      </c>
+      <c r="P4">
         <v>0.2</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>0.55</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>0.55</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>17.57</v>
-      </c>
-      <c r="R4">
-        <v>0.16</v>
-      </c>
-      <c r="S4">
-        <v>0.16</v>
       </c>
       <c r="T4">
         <v>0.16</v>
@@ -1795,64 +1822,70 @@
       <c r="U4">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4">
+        <v>0.16</v>
+      </c>
+      <c r="W4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>71</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5">
         <v>1.29</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>1.29</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>0.1</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>0.51</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0.67</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>0.12</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.8</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0.08</v>
-      </c>
-      <c r="K5">
-        <v>0.72</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
       </c>
       <c r="M5">
         <v>0.72</v>
       </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.72</v>
+      </c>
+      <c r="P5">
         <v>0.19</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>0.53</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>0.53</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>17.57</v>
-      </c>
-      <c r="R5">
-        <v>0.16</v>
-      </c>
-      <c r="S5">
-        <v>0.15</v>
       </c>
       <c r="T5">
         <v>0.16</v>
@@ -1860,64 +1893,70 @@
       <c r="U5">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5">
+        <v>0.16</v>
+      </c>
+      <c r="W5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6">
         <v>1.15</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>1.15</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>0.08</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>0.31</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.75</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>0.17</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.93</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>0.08</v>
-      </c>
-      <c r="K6">
-        <v>0.85</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
       </c>
       <c r="M6">
         <v>0.85</v>
       </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0.85</v>
+      </c>
+      <c r="P6">
         <v>0.21</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>0.64</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>0.64</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>17.57</v>
-      </c>
-      <c r="R6">
-        <v>0.18</v>
-      </c>
-      <c r="S6">
-        <v>0.18</v>
       </c>
       <c r="T6">
         <v>0.18</v>
@@ -1925,64 +1964,70 @@
       <c r="U6">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6">
+        <v>0.18</v>
+      </c>
+      <c r="W6">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7">
         <v>1.26</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>1.26</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>0.08</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0.31</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>0.86</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>0.29</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>1.15</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>0.11</v>
-      </c>
-      <c r="K7">
-        <v>1.04</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
       </c>
       <c r="M7">
         <v>1.04</v>
       </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.04</v>
+      </c>
+      <c r="P7">
         <v>0.26</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>0.77</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>0.77</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>17.57</v>
-      </c>
-      <c r="R7">
-        <v>0.22</v>
-      </c>
-      <c r="S7">
-        <v>0.21</v>
       </c>
       <c r="T7">
         <v>0.22</v>
@@ -1990,64 +2035,70 @@
       <c r="U7">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7">
+        <v>0.22</v>
+      </c>
+      <c r="W7">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8">
         <v>1.16</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>1.16</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>0.1</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>0.41</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>0.64</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>0.47</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>1.11</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>0.15</v>
-      </c>
-      <c r="K8">
-        <v>0.96</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
       </c>
       <c r="M8">
         <v>0.96</v>
       </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0.96</v>
+      </c>
+      <c r="P8">
         <v>0.21</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>0.74</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>0.74</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>23.43</v>
-      </c>
-      <c r="R8">
-        <v>0.16</v>
-      </c>
-      <c r="S8">
-        <v>0.15</v>
       </c>
       <c r="T8">
         <v>0.16</v>
@@ -2055,64 +2106,70 @@
       <c r="U8">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8">
+        <v>0.16</v>
+      </c>
+      <c r="W8">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9">
         <v>3.17</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>3.17</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>0.09</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>0.33</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>1.07</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>0.08</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>1.15</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>0.12</v>
-      </c>
-      <c r="K9">
-        <v>1.03</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
       </c>
       <c r="M9">
         <v>1.03</v>
       </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
         <v>0.25</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>0.78</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>0.78</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>23.73</v>
-      </c>
-      <c r="R9">
-        <v>0.17</v>
-      </c>
-      <c r="S9">
-        <v>0.16</v>
       </c>
       <c r="T9">
         <v>0.17</v>
@@ -2120,64 +2177,70 @@
       <c r="U9">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9">
+        <v>0.17</v>
+      </c>
+      <c r="W9">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10">
         <v>1.97</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>1.97</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>0.09</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>0.26</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>0.89</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>0.24</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>1.13</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>0.05</v>
-      </c>
-      <c r="K10">
-        <v>1.07</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
       </c>
       <c r="M10">
         <v>1.07</v>
       </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1.07</v>
+      </c>
+      <c r="P10">
         <v>0.26</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>0.8100000000000001</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>0.8100000000000001</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>24.24</v>
-      </c>
-      <c r="R10">
-        <v>0.17</v>
-      </c>
-      <c r="S10">
-        <v>0.17</v>
       </c>
       <c r="T10">
         <v>0.17</v>
@@ -2185,69 +2248,81 @@
       <c r="U10">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10">
+        <v>0.17</v>
+      </c>
+      <c r="W10">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11">
         <v>1.51</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>1.51</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>0.08</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>0.28</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>0.63</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>0.51</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>1.15</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="K11">
-        <v>1.07</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
       </c>
       <c r="M11">
         <v>1.07</v>
       </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1.07</v>
+      </c>
+      <c r="P11">
         <v>0.28</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>0.8</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>0.8</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>31.31</v>
-      </c>
-      <c r="R11">
-        <v>0.13</v>
-      </c>
-      <c r="S11">
-        <v>0.13</v>
       </c>
       <c r="T11">
         <v>0.13</v>
       </c>
       <c r="U11">
+        <v>0.13</v>
+      </c>
+      <c r="V11">
+        <v>0.13</v>
+      </c>
+      <c r="W11">
         <v>0.13</v>
       </c>
     </row>
@@ -2266,58 +2341,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:18">
